--- a/StrainMenu Creator/Files/Template_42.xlsx
+++ b/StrainMenu Creator/Files/Template_42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\source\repos\StrainMenu Creator\StrainMenu Creator\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E968353A-AC64-42AB-879C-7BF0CC4E0CFE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D5DCA8-CA05-4624-AB67-A61CD11E3968}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{BBEC57AF-E876-4348-A0BF-72133E8375A3}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
-  <si>
-    <t>FX420</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="11">
   <si>
     <t>Strain:</t>
   </si>
@@ -59,6 +56,9 @@
   <si>
     <t>Orange  --  CBD Heavy Hybrid</t>
   </si>
+  <si>
+    <t>Bulk Grams</t>
+  </si>
 </sst>
 </file>
 
@@ -66,7 +66,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -96,12 +96,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="72"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Georgia"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="20"/>
@@ -220,6 +214,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -319,223 +318,223 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -563,61 +562,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>129109</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1071958</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123657</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C104B72-03EE-455A-AD10-13CE1278FD7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7672909" y="0"/>
-          <a:ext cx="3590799" cy="1800057"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -919,22 +863,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDE5258-D422-4EA7-88CA-705A4F6337F1}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.42578125" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="54.42578125" customWidth="1"/>
     <col min="9" max="9" width="35.5703125" customWidth="1"/>
     <col min="10" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="116.25" customHeight="1" x14ac:dyDescent="1.35">
@@ -942,10 +887,10 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
+      <c r="E1" s="83" t="s">
+        <v>10</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -977,31 +922,31 @@
     </row>
     <row r="3" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
-        <v>2</v>
+      <c r="D3" s="59" t="s">
+        <v>3</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="E3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="59" t="s">
-        <v>5</v>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="57" t="s">
+        <v>0</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="58" t="s">
+      <c r="I3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="59" t="s">
-        <v>2</v>
+      <c r="J3" s="59" t="s">
+        <v>3</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="K3" s="58" t="s">
         <v>4</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>5</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="1"/>
@@ -1010,16 +955,16 @@
     </row>
     <row r="4" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A4" s="2"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="3"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1027,16 +972,16 @@
     </row>
     <row r="5" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="3"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1044,16 +989,16 @@
     </row>
     <row r="6" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A6" s="2"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="3"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1061,16 +1006,16 @@
     </row>
     <row r="7" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A7" s="2"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="3"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1078,16 +1023,16 @@
     </row>
     <row r="8" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A8" s="2"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="3"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1095,16 +1040,16 @@
     </row>
     <row r="9" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A9" s="2"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="48"/>
       <c r="L9" s="3"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1112,16 +1057,16 @@
     </row>
     <row r="10" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A10" s="2"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="3"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1129,16 +1074,16 @@
     </row>
     <row r="11" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A11" s="2"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1146,16 +1091,16 @@
     </row>
     <row r="12" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A12" s="2"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1163,16 +1108,16 @@
     </row>
     <row r="13" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A13" s="2"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="50"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1180,16 +1125,16 @@
     </row>
     <row r="14" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A14" s="2"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1197,16 +1142,16 @@
     </row>
     <row r="15" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A15" s="2"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1214,16 +1159,16 @@
     </row>
     <row r="16" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A16" s="2"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1231,16 +1176,16 @@
     </row>
     <row r="17" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A17" s="2"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1248,16 +1193,16 @@
     </row>
     <row r="18" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A18" s="2"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1265,16 +1210,16 @@
     </row>
     <row r="19" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A19" s="2"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1282,16 +1227,16 @@
     </row>
     <row r="20" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A20" s="2"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1299,16 +1244,16 @@
     </row>
     <row r="21" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A21" s="3"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="3"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1316,16 +1261,16 @@
     </row>
     <row r="22" spans="1:15" ht="33.75" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
       <c r="L22" s="3"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1333,16 +1278,16 @@
     </row>
     <row r="23" spans="1:15" ht="33.75" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
       <c r="L23" s="3"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1354,8 +1299,8 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1365,15 +1310,17 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" ht="33.75" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="3"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="61" t="s">
+        <v>5</v>
+      </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1384,15 +1331,13 @@
     </row>
     <row r="26" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A26" s="3"/>
-      <c r="B26" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="62" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="63" t="s">
         <v>6</v>
       </c>
       <c r="I26" s="2"/>
@@ -1405,14 +1350,12 @@
     </row>
     <row r="27" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A27" s="3"/>
-      <c r="B27" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
       <c r="H27" s="64" t="s">
         <v>7</v>
       </c>
@@ -1426,16 +1369,14 @@
     </row>
     <row r="28" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A28" s="3"/>
-      <c r="B28" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
       <c r="H28" s="65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1447,16 +1388,14 @@
     </row>
     <row r="29" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A29" s="3"/>
-      <c r="B29" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="66" t="s">
-        <v>10</v>
+      <c r="B29" s="3"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1467,15 +1406,13 @@
     </row>
     <row r="30" spans="1:15" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A30" s="3"/>
-      <c r="B30" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -1491,7 +1428,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="6"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -1505,21 +1442,21 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="6"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -1531,6 +1468,5 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>